--- a/hrdesktop/tool/お客様テンプレート.xlsx
+++ b/hrdesktop/tool/お客様テンプレート.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>会社名称</t>
     <rPh sb="0" eb="2">
@@ -67,6 +67,13 @@
     <t>備考</t>
     <rPh sb="0" eb="2">
       <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電話・FAX</t>
+    <rPh sb="0" eb="2">
+      <t>デンワ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -418,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G2"/>
+  <dimension ref="B1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -431,13 +438,14 @@
     <col min="3" max="3" width="16.125" customWidth="1"/>
     <col min="4" max="4" width="14.75" customWidth="1"/>
     <col min="5" max="5" width="23.5" customWidth="1"/>
-    <col min="6" max="6" width="25.5" customWidth="1"/>
-    <col min="7" max="7" width="19.5" customWidth="1"/>
-    <col min="8" max="8" width="1.75" customWidth="1"/>
+    <col min="6" max="6" width="28.25" customWidth="1"/>
+    <col min="7" max="7" width="25.5" customWidth="1"/>
+    <col min="8" max="8" width="19.5" customWidth="1"/>
+    <col min="9" max="9" width="1.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:8" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -454,6 +462,9 @@
         <v>4</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
     </row>

--- a/hrdesktop/tool/お客様テンプレート.xlsx
+++ b/hrdesktop/tool/お客様テンプレート.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$32</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>会社名称</t>
     <rPh sb="0" eb="2">
@@ -75,6 +78,10 @@
     <rPh sb="0" eb="2">
       <t>デンワ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Web</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -425,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H2"/>
+  <dimension ref="B1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C1" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -440,12 +447,11 @@
     <col min="5" max="5" width="23.5" customWidth="1"/>
     <col min="6" max="6" width="28.25" customWidth="1"/>
     <col min="7" max="7" width="25.5" customWidth="1"/>
-    <col min="8" max="8" width="19.5" customWidth="1"/>
-    <col min="9" max="9" width="1.75" customWidth="1"/>
+    <col min="8" max="9" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -465,12 +471,15 @@
         <v>6</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="78" orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>